--- a/data/trans_orig/P5B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5B_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBC31091-E0F8-4A9B-9E48-7BE960112E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECD4846B-E6F0-45A6-8BE4-2FEA7EF8AA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FDBEA2F0-201E-4EDF-8FD1-6B110B4EBC7A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D0D31A66-C3ED-4AAB-BB9F-FA7427B9F18A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="259">
   <si>
     <t>Población que percibe la calidad medioambiental como mala o muy mala en la zona de residencia en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -668,172 +668,154 @@
     <t>Población que percibe la calidad medioambiental como mala o muy mala en la zona de residencia en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
+    <t>98,54%</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B517E9A-2793-4D3C-8A58-798AD8D7EE70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E61635-E705-4338-A52F-D550ABF76D41}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1572,7 +1554,7 @@
         <v>1604</v>
       </c>
       <c r="D8" s="7">
-        <v>1645059</v>
+        <v>1645060</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1623,7 +1605,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1996,7 +1978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17022A0-1558-4B38-B895-F944B0FC0D78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293C1991-6C09-45BA-B241-F988A3D468ED}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2648,7 +2630,7 @@
         <v>3225</v>
       </c>
       <c r="I14" s="7">
-        <v>3479792</v>
+        <v>3479793</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>148</v>
@@ -2699,7 +2681,7 @@
         <v>3278</v>
       </c>
       <c r="I15" s="7">
-        <v>3537508</v>
+        <v>3537509</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2747,7 +2729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73A06A0-F915-4FD1-BF23-ACEB4A61E1E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B143BDB-5CB0-4D19-BFA9-8F6E50FA6169}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3104,7 +3086,7 @@
         <v>3783</v>
       </c>
       <c r="N8" s="7">
-        <v>3981329</v>
+        <v>3981328</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>62</v>
@@ -3155,7 +3137,7 @@
         <v>3847</v>
       </c>
       <c r="N9" s="7">
-        <v>4051494</v>
+        <v>4051493</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3399,7 +3381,7 @@
         <v>3244</v>
       </c>
       <c r="I14" s="7">
-        <v>3442626</v>
+        <v>3442625</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>203</v>
@@ -3414,7 +3396,7 @@
         <v>6409</v>
       </c>
       <c r="N14" s="7">
-        <v>6765504</v>
+        <v>6765503</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>206</v>
@@ -3450,7 +3432,7 @@
         <v>3313</v>
       </c>
       <c r="I15" s="7">
-        <v>3518072</v>
+        <v>3518071</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3465,7 +3447,7 @@
         <v>6520</v>
       </c>
       <c r="N15" s="7">
-        <v>6886974</v>
+        <v>6886973</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3498,7 +3480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB56F211-4C66-4372-97D0-D5297A701A7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7443608-A2EE-49A8-B7FE-5E9F4011B800}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3619,46 +3601,46 @@
         <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>12593</v>
+        <v>12133</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>14098</v>
+        <v>12987</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
       </c>
       <c r="N4" s="7">
-        <v>26692</v>
+        <v>25120</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,46 +3652,46 @@
         <v>674</v>
       </c>
       <c r="D5" s="7">
-        <v>526384</v>
+        <v>500195</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H5" s="7">
         <v>1398</v>
       </c>
       <c r="I5" s="7">
-        <v>818160</v>
+        <v>739141</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="M5" s="7">
         <v>2072</v>
       </c>
       <c r="N5" s="7">
-        <v>1344544</v>
+        <v>1239336</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,7 +3703,7 @@
         <v>688</v>
       </c>
       <c r="D6" s="7">
-        <v>538977</v>
+        <v>512328</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3736,7 +3718,7 @@
         <v>1420</v>
       </c>
       <c r="I6" s="7">
-        <v>832258</v>
+        <v>752128</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3751,7 +3733,7 @@
         <v>2108</v>
       </c>
       <c r="N6" s="7">
-        <v>1371236</v>
+        <v>1264456</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3774,40 +3756,40 @@
         <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>13640</v>
+        <v>13412</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>22843</v>
+        <v>20975</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
       </c>
       <c r="N7" s="7">
-        <v>36483</v>
+        <v>34387</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>226</v>
@@ -3825,7 +3807,7 @@
         <v>1979</v>
       </c>
       <c r="D8" s="7">
-        <v>2147090</v>
+        <v>2275678</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>228</v>
@@ -3840,31 +3822,31 @@
         <v>2886</v>
       </c>
       <c r="I8" s="7">
-        <v>2224091</v>
+        <v>2214437</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>231</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>4865</v>
       </c>
       <c r="N8" s="7">
-        <v>4371181</v>
+        <v>4490115</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,7 +3858,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2160730</v>
+        <v>2289090</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3891,7 +3873,7 @@
         <v>2916</v>
       </c>
       <c r="I9" s="7">
-        <v>2246934</v>
+        <v>2235412</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3906,7 +3888,7 @@
         <v>4906</v>
       </c>
       <c r="N9" s="7">
-        <v>4407664</v>
+        <v>4524502</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3929,46 +3911,46 @@
         <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>12165</v>
+        <v>11620</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>12465</v>
+        <v>11451</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
       </c>
       <c r="N10" s="7">
-        <v>24631</v>
+        <v>23071</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,46 +3962,46 @@
         <v>667</v>
       </c>
       <c r="D11" s="7">
-        <v>659434</v>
+        <v>633547</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>116</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>984</v>
       </c>
       <c r="I11" s="7">
-        <v>698749</v>
+        <v>646598</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>1651</v>
       </c>
       <c r="N11" s="7">
-        <v>1358182</v>
+        <v>1280145</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,7 +4013,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>671599</v>
+        <v>645167</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4046,7 +4028,7 @@
         <v>1000</v>
       </c>
       <c r="I12" s="7">
-        <v>711214</v>
+        <v>658049</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4061,7 +4043,7 @@
         <v>1680</v>
       </c>
       <c r="N12" s="7">
-        <v>1382813</v>
+        <v>1303216</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4084,46 +4066,46 @@
         <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>38399</v>
+        <v>37165</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>253</v>
+        <v>104</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
       </c>
       <c r="I13" s="7">
-        <v>49406</v>
+        <v>45413</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>106</v>
       </c>
       <c r="N13" s="7">
-        <v>87805</v>
+        <v>82578</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,46 +4117,46 @@
         <v>3320</v>
       </c>
       <c r="D14" s="7">
-        <v>3332907</v>
+        <v>3409421</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>113</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>5268</v>
       </c>
       <c r="I14" s="7">
-        <v>3741001</v>
+        <v>3600175</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M14" s="7">
         <v>8588</v>
       </c>
       <c r="N14" s="7">
-        <v>7073908</v>
+        <v>7009596</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,7 +4168,7 @@
         <v>3358</v>
       </c>
       <c r="D15" s="7">
-        <v>3371306</v>
+        <v>3446586</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4201,7 +4183,7 @@
         <v>5336</v>
       </c>
       <c r="I15" s="7">
-        <v>3790407</v>
+        <v>3645588</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4216,7 +4198,7 @@
         <v>8694</v>
       </c>
       <c r="N15" s="7">
-        <v>7161713</v>
+        <v>7092174</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
